--- a/S4/repartition des taches.xlsx
+++ b/S4/repartition des taches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iutbg-smbetu.univ-lyon1.fr\homes\Documents\2A\S3\SAE\code\documents\S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E47698-358E-48B2-B9EB-6FD9CE81CB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D7EF1-C226-4F91-90B2-A57310A7C9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="6735" windowWidth="21600" windowHeight="11385" xr2:uid="{F02EB596-9A8F-422A-AAB2-54C424AB86A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F02EB596-9A8F-422A-AAB2-54C424AB86A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>Manuel d'installation</t>
   </si>
   <si>
-    <t>Affiche</t>
-  </si>
-  <si>
     <t>Amélioration de l'algo de détéction des contours</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Ajout d'une pop-up pour afficher les tuiles détéctées</t>
+  </si>
+  <si>
+    <t>Poster</t>
   </si>
 </sst>
 </file>
@@ -988,6 +988,24 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,24 +1028,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049299DD-A3CB-4425-8234-A190EC474360}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,10 +1520,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="78" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="39"/>
@@ -1534,7 +1534,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="42"/>
       <c r="H2" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="60">
         <f>IF(ISERROR(SEARCH(1,$C2)),0,1)</f>
@@ -1562,8 +1562,8 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="37"/>
       <c r="D3" s="9">
         <v>1</v>
@@ -1572,7 +1572,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="43"/>
       <c r="H3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="60">
         <f t="shared" ref="J3:J31" si="0">IF(ISERROR(SEARCH(1,$C3)),0,1)</f>
@@ -1600,8 +1600,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="37"/>
       <c r="D4" s="9">
         <v>1</v>
@@ -1610,7 +1610,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="43"/>
       <c r="H4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="60">
         <f t="shared" si="0"/>
@@ -1638,8 +1638,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="73"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="37"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -1672,8 +1672,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="40"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -1710,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="19"/>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="60">
         <f t="shared" si="0"/>
@@ -1752,7 +1752,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="19"/>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="60">
         <f t="shared" si="0"/>
@@ -1914,7 +1914,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="19"/>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="60">
         <f t="shared" si="0"/>
@@ -1952,10 +1952,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="81" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -1992,8 +1992,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="73"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="37" t="s">
         <v>32</v>
       </c>
@@ -2028,10 +2028,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="73"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="73"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="37"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
@@ -2098,8 +2098,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="40"/>
       <c r="D17" s="16"/>
       <c r="E17" s="17"/>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="81"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="62">
         <f>SUMPRODUCT($J$2:$J$31,D$2:D$31)/$J$32</f>
         <v>0.25</v>
@@ -2719,10 +2719,10 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="69"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="63">
         <f>SUMPRODUCT($K$2:$K$31,D$2:D$31)/$K$32</f>
         <v>0.25</v>
@@ -2741,10 +2741,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="69"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="63" t="e">
         <f>SUMPRODUCT($L$2:$L$31,D$2:D$31)/$L$32</f>
         <v>#DIV/0!</v>
@@ -2763,10 +2763,10 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="69"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="63" t="e">
         <f>SUMPRODUCT($M$2:$M$31,D$2:D$31)/$M$32</f>
         <v>#DIV/0!</v>
@@ -2785,10 +2785,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="68" t="s">
+      <c r="B43" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="69"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="63">
         <f>SUMPRODUCT($N$2:$N$31,D$2:D$31)/$N$32</f>
         <v>0.25</v>
@@ -2807,10 +2807,10 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="71"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="64">
         <f>SUMPRODUCT($O$2:$O$31,D$2:D$31)/$O$32</f>
         <v>0.25</v>
@@ -2830,16 +2830,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/S4/repartition des taches.xlsx
+++ b/S4/repartition des taches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\iutbg-smbetu.univ-lyon1.fr\homes\Documents\2A\S3\SAE\code\documents\S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D7EF1-C226-4F91-90B2-A57310A7C9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C280CF7-A74A-4BC4-90CE-332BD849D55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F02EB596-9A8F-422A-AAB2-54C424AB86A4}"/>
+    <workbookView xWindow="4665" yWindow="6570" windowWidth="21600" windowHeight="11385" xr2:uid="{F02EB596-9A8F-422A-AAB2-54C424AB86A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tâches" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Ordre de priorité</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Création de nouvelles règles sur le serveur</t>
   </si>
   <si>
-    <t>Modification de l'interface pour accueillir les nouvelles règles</t>
-  </si>
-  <si>
     <t>Rédaction des documents</t>
   </si>
   <si>
@@ -136,15 +133,9 @@
     <t>Manuel d'installation</t>
   </si>
   <si>
-    <t>Amélioration de l'algo de détéction des contours</t>
-  </si>
-  <si>
     <t>Optimisation du serveur pour le renvoi des images</t>
   </si>
   <si>
-    <t>Optimisation algo knn</t>
-  </si>
-  <si>
     <t>Login et base de données</t>
   </si>
   <si>
@@ -161,6 +152,69 @@
   </si>
   <si>
     <t>Poster</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Connexion BD</t>
+  </si>
+  <si>
+    <t>Création de la page de login</t>
+  </si>
+  <si>
+    <t>Page login</t>
+  </si>
+  <si>
+    <t>Envoi des images</t>
+  </si>
+  <si>
+    <t>Algo knn</t>
+  </si>
+  <si>
+    <t>Optimisation algo knn pour la détection des tuiles sur l'image</t>
+  </si>
+  <si>
+    <t>Algo détection contours</t>
+  </si>
+  <si>
+    <t>Amélioration et création de nouvelles classes pour la détection des contours</t>
+  </si>
+  <si>
+    <t>Desing pattern règles</t>
+  </si>
+  <si>
+    <t>Modification du desing pattern pour le calcul des points en fonction des règles</t>
+  </si>
+  <si>
+    <t>Classes pop up</t>
+  </si>
+  <si>
+    <t>Pop up détection des tuiles</t>
+  </si>
+  <si>
+    <t>Ajout des règles du jeu</t>
+  </si>
+  <si>
+    <t>Classe settingItem</t>
+  </si>
+  <si>
+    <t>Création d'une nouvelle classe permettant d'ajouter des options dans les règles sans modifier le HTML (une seule ligne de Javascirpt suffit)</t>
+  </si>
+  <si>
+    <t>Messages d'erreur</t>
+  </si>
+  <si>
+    <t>Affichage d'un message d'erreur dans une pop-up en cas de problème de connexion avec le serveur</t>
+  </si>
+  <si>
+    <t>Rapport final</t>
+  </si>
+  <si>
+    <t>Rédaction et génration de la documentation avec JavaDoc</t>
+  </si>
+  <si>
+    <t>Documentation du code</t>
   </si>
 </sst>
 </file>
@@ -311,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -776,6 +830,15 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -787,12 +850,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,215 +880,245 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1457,1389 +1547,1518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049299DD-A3CB-4425-8234-A190EC474360}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4"/>
-    <col min="5" max="5" width="11.42578125" style="5"/>
-    <col min="6" max="6" width="11.42578125" style="6"/>
-    <col min="7" max="7" width="11.42578125" style="7"/>
-    <col min="8" max="8" width="116.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="46.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="3"/>
+    <col min="6" max="6" width="11.42578125" style="4"/>
+    <col min="7" max="7" width="11.42578125" style="5"/>
+    <col min="8" max="8" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="116.85546875" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="59">
+      <c r="K1" s="51">
         <v>1</v>
       </c>
-      <c r="K1" s="59">
+      <c r="L1" s="51">
         <v>2</v>
       </c>
-      <c r="L1" s="59">
+      <c r="M1" s="51">
         <v>3</v>
       </c>
-      <c r="M1" s="59">
+      <c r="N1" s="51">
         <v>4</v>
       </c>
-      <c r="N1" s="59">
+      <c r="O1" s="51">
         <v>5</v>
       </c>
-      <c r="O1" s="59">
+      <c r="P1" s="51">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="29">
+      <c r="C2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23">
         <v>1</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="52">
+        <f>IF(ISERROR(SEARCH(1,$D2)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="52">
+        <f>IF(ISERROR(SEARCH(2,$D2)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="52">
+        <f>IF(ISERROR(SEARCH(3,$D2)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="52">
+        <f>IF(ISERROR(SEARCH(4,$D2)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="52">
+        <f>IF(ISERROR(SEARCH(5,$D2)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="52">
+        <f>IF(ISERROR(SEARCH(6,$D2)),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="52">
+        <f t="shared" ref="K3:K32" si="0">IF(ISERROR(SEARCH(1,$D3)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="52">
+        <f t="shared" ref="L3:L32" si="1">IF(ISERROR(SEARCH(2,$D3)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="52">
+        <f t="shared" ref="M3:M32" si="2">IF(ISERROR(SEARCH(3,$D3)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="52">
+        <f t="shared" ref="N3:N32" si="3">IF(ISERROR(SEARCH(4,$D3)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="52">
+        <f t="shared" ref="O3:O32" si="4">IF(ISERROR(SEARCH(5,$D3)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="52">
+        <f t="shared" ref="P3:P32" si="5">IF(ISERROR(SEARCH(6,$D3)),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="68"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="86"/>
+      <c r="K6" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="38">
+        <v>1</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="38">
+        <v>1</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="38">
+        <v>1</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="60">
-        <f>IF(ISERROR(SEARCH(1,$C2)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="60">
-        <f>IF(ISERROR(SEARCH(2,$C2)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="60">
-        <f>IF(ISERROR(SEARCH(3,$C2)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="60">
-        <f>IF(ISERROR(SEARCH(4,$C2)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="60">
-        <f>IF(ISERROR(SEARCH(5,$C2)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="60">
-        <f>IF(ISERROR(SEARCH(6,$C2)),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="9">
+      <c r="K12" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="60">
-        <f t="shared" ref="J3:J31" si="0">IF(ISERROR(SEARCH(1,$C3)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="60">
-        <f t="shared" ref="K3:K31" si="1">IF(ISERROR(SEARCH(2,$C3)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="60">
-        <f t="shared" ref="L3:L31" si="2">IF(ISERROR(SEARCH(3,$C3)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="60">
-        <f t="shared" ref="M3:M31" si="3">IF(ISERROR(SEARCH(4,$C3)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="60">
-        <f t="shared" ref="N3:N31" si="4">IF(ISERROR(SEARCH(5,$C3)),0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="60">
-        <f t="shared" ref="O3:O31" si="5">IF(ISERROR(SEARCH(6,$C3)),0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="9">
+      <c r="H13" s="38"/>
+      <c r="I13" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="60">
+      <c r="H14" s="39"/>
+      <c r="I14" s="88"/>
+      <c r="K14" s="52">
+        <f>IF(ISERROR(SEARCH(1,$C14)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="52">
+        <f>IF(ISERROR(SEARCH(2,$C14)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="52">
+        <f>IF(ISERROR(SEARCH(3,$C14)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="52">
+        <f>IF(ISERROR(SEARCH(4,$C14)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="52">
+        <f>IF(ISERROR(SEARCH(5,$C14)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="52">
+        <f>IF(ISERROR(SEARCH(6,$C14)),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36"/>
+      <c r="I15" s="85"/>
+      <c r="K15" s="52">
+        <f>IF(ISERROR(SEARCH(1,$C15)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="52">
+        <f>IF(ISERROR(SEARCH(2,$C15)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="52">
+        <f>IF(ISERROR(SEARCH(3,$C15)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="52">
+        <f>IF(ISERROR(SEARCH(4,$C15)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="52">
+        <f>IF(ISERROR(SEARCH(5,$C15)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="52">
+        <f>IF(ISERROR(SEARCH(6,$C15)),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="85"/>
+      <c r="K16" s="52">
+        <f>IF(ISERROR(SEARCH(1,$C16)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="52">
+        <f>IF(ISERROR(SEARCH(2,$C16)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="52">
+        <f>IF(ISERROR(SEARCH(3,$C16)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="52">
+        <f>IF(ISERROR(SEARCH(4,$C16)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="52">
+        <f>IF(ISERROR(SEARCH(5,$C16)),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="52">
+        <f>IF(ISERROR(SEARCH(6,$C16)),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="85"/>
+      <c r="K17" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="60">
+      <c r="L17" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L4" s="60">
+      <c r="M17" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M4" s="60">
+      <c r="N17" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N4" s="60">
+      <c r="O17" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O4" s="60">
+      <c r="P17" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="12"/>
-      <c r="J5" s="60">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="60">
+      <c r="L18" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="60">
+      <c r="M18" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M5" s="60">
+      <c r="N18" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N5" s="60">
+      <c r="O18" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O5" s="60">
+      <c r="P18" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="23"/>
-      <c r="J6" s="60">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="85"/>
+      <c r="K19" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="60">
+      <c r="L19" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="60">
+      <c r="M19" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M6" s="60">
+      <c r="N19" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N6" s="60">
+      <c r="O19" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O6" s="60">
+      <c r="P19" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="45">
-        <v>1</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="60">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="85"/>
+      <c r="K20" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="60">
+      <c r="L20" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="60">
+      <c r="M20" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="60">
+      <c r="N20" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N7" s="60">
+      <c r="O20" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O7" s="60">
+      <c r="P20" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="45">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="60">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="85"/>
+      <c r="K21" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="60">
+      <c r="L21" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="60">
+      <c r="M21" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="60">
+      <c r="N21" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="60">
+      <c r="O21" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O8" s="60">
+      <c r="P21" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="60">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="85"/>
+      <c r="K22" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="60">
+      <c r="L22" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="60">
+      <c r="M22" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M9" s="60">
+      <c r="N22" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="60">
+      <c r="O22" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O9" s="60">
+      <c r="P22" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="45">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="60">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="85"/>
+      <c r="K23" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="60">
+      <c r="L23" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="60">
+      <c r="M23" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="60">
+      <c r="N23" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="60">
+      <c r="O23" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O10" s="60">
+      <c r="P23" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="24"/>
-      <c r="J11" s="60">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="85"/>
+      <c r="K24" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="60">
+      <c r="L24" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="60">
+      <c r="M24" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M11" s="60">
+      <c r="N24" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="60">
+      <c r="O24" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O11" s="60">
+      <c r="P24" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="60">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="85"/>
+      <c r="K25" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="60">
+      <c r="L25" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="60">
+      <c r="M25" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="60">
+      <c r="N25" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="60">
+      <c r="O25" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O12" s="60">
+      <c r="P25" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="22"/>
-      <c r="J13" s="60">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="85"/>
+      <c r="K26" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="60">
+      <c r="L26" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="60">
+      <c r="M26" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="60">
+      <c r="N26" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="60">
+      <c r="O26" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="60">
+      <c r="P26" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="12"/>
-      <c r="J14" s="60">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="85"/>
+      <c r="K27" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="60">
+      <c r="L27" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="60">
+      <c r="M27" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M14" s="60">
+      <c r="N27" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="60">
+      <c r="O27" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="60">
+      <c r="P27" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="12"/>
-      <c r="J15" s="60">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="85"/>
+      <c r="K28" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="60">
+      <c r="L28" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="60">
+      <c r="M28" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M15" s="60">
+      <c r="N28" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="60">
+      <c r="O28" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="60">
+      <c r="P28" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="12"/>
-      <c r="J16" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="23"/>
-      <c r="J17" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="12"/>
-      <c r="J19" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="12"/>
-      <c r="J21" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="12"/>
-      <c r="J22" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="12"/>
-      <c r="J23" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="12"/>
-      <c r="J24" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="12"/>
-      <c r="J25" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="12"/>
-      <c r="J26" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="12"/>
-      <c r="J27" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="E28" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="G28" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="H28" s="24" t="s">
+      <c r="E29" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="60">
+      <c r="K29" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K28" s="60">
+      <c r="L29" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="60">
+      <c r="M29" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="60">
+      <c r="N29" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N28" s="60">
+      <c r="O29" s="52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O28" s="60">
+      <c r="P29" s="52">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B30" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="G29" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="H29" s="24" t="s">
+      <c r="E30" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H30" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="60">
+      <c r="K30" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K29" s="60">
+      <c r="L30" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="60">
+      <c r="M30" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="60">
+      <c r="N30" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N29" s="60">
+      <c r="O30" s="52">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O29" s="60">
+      <c r="P30" s="52">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B31" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26">
         <v>6</v>
       </c>
-      <c r="D30" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0.25</v>
-      </c>
-      <c r="G30" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="H30" s="24" t="s">
+      <c r="E31" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="60">
+      <c r="K31" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="60">
+      <c r="L31" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="60">
+      <c r="M31" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="60">
+      <c r="N31" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="60">
+      <c r="O31" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O30" s="60">
+      <c r="P31" s="52">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B32" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31">
         <v>1.2</v>
       </c>
-      <c r="D31" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="F31" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G31" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="H31" s="28" t="s">
+      <c r="E32" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="J31" s="60">
+      <c r="K32" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K31" s="60">
+      <c r="L32" s="52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L31" s="60">
+      <c r="M32" s="52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="60">
+      <c r="N32" s="52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N31" s="60">
+      <c r="O32" s="52">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O31" s="60">
+      <c r="P32" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J32" s="61">
-        <f>SUM(J2:J31)</f>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K33" s="53">
+        <f>SUM(K2:K32)</f>
         <v>3</v>
       </c>
-      <c r="K32" s="61">
-        <f t="shared" ref="K32:O32" si="6">SUM(K2:K31)</f>
+      <c r="L33" s="53">
+        <f t="shared" ref="L33:P33" si="6">SUM(L2:L32)</f>
         <v>1</v>
       </c>
-      <c r="L32" s="61">
+      <c r="M33" s="53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M32" s="61">
+      <c r="N33" s="53">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N32" s="61">
+      <c r="O33" s="53">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O32" s="61">
+      <c r="P33" s="53">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="72" t="s">
+    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="62">
-        <f>SUMPRODUCT($J$2:$J$31,D$2:D$31)/$J$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="E39" s="53">
-        <f>SUMPRODUCT($J$2:$J$31,E$2:E$31)/$J$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="F39" s="65">
-        <f>SUMPRODUCT($J$2:$J$31,F$2:F$31)/$J$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="G39" s="56">
-        <f>SUMPRODUCT($J$2:$J$31,G$2:G$31)/$J$32</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="74" t="s">
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="54">
+        <f>SUMPRODUCT($K$2:$K$32,E$2:E$32)/$K$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="F40" s="45">
+        <f>SUMPRODUCT($K$2:$K$32,F$2:F$32)/$K$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="G40" s="57">
+        <f>SUMPRODUCT($K$2:$K$32,G$2:G$32)/$K$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="H40" s="48">
+        <f>SUMPRODUCT($K$2:$K$32,H$2:H$32)/$K$33</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="63">
-        <f>SUMPRODUCT($K$2:$K$31,D$2:D$31)/$K$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="E40" s="54">
-        <f>SUMPRODUCT($K$2:$K$31,E$2:E$31)/$K$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="F40" s="66">
-        <f>SUMPRODUCT($K$2:$K$31,F$2:F$31)/$K$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="G40" s="57">
-        <f>SUMPRODUCT($K$2:$K$31,G$2:G$31)/$K$32</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="74" t="s">
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="55">
+        <f>SUMPRODUCT($L$2:$L$32,E$2:E$32)/$L$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="F41" s="46">
+        <f>SUMPRODUCT($L$2:$L$32,F$2:F$32)/$L$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="G41" s="58">
+        <f>SUMPRODUCT($L$2:$L$32,G$2:G$32)/$L$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="49">
+        <f>SUMPRODUCT($L$2:$L$32,H$2:H$32)/$L$33</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="63" t="e">
-        <f>SUMPRODUCT($L$2:$L$31,D$2:D$31)/$L$32</f>
+      <c r="C42" s="75"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="55" t="e">
+        <f>SUMPRODUCT($M$2:$M$32,E$2:E$32)/$M$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="54" t="e">
-        <f>SUMPRODUCT($L$2:$L$31,E$2:E$31)/$L$32</f>
+      <c r="F42" s="46" t="e">
+        <f>SUMPRODUCT($M$2:$M$32,F$2:F$32)/$M$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="66" t="e">
-        <f>SUMPRODUCT($L$2:$L$31,F$2:F$31)/$L$32</f>
+      <c r="G42" s="58" t="e">
+        <f>SUMPRODUCT($M$2:$M$32,G$2:G$32)/$M$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="57" t="e">
-        <f>SUMPRODUCT($L$2:$L$31,G$2:G$31)/$L$32</f>
+      <c r="H42" s="49" t="e">
+        <f>SUMPRODUCT($M$2:$M$32,H$2:H$32)/$M$33</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="74" t="s">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="75"/>
-      <c r="D42" s="63" t="e">
-        <f>SUMPRODUCT($M$2:$M$31,D$2:D$31)/$M$32</f>
+      <c r="C43" s="75"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="55" t="e">
+        <f>SUMPRODUCT($N$2:$N$32,E$2:E$32)/$N$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="54" t="e">
-        <f>SUMPRODUCT($M$2:$M$31,E$2:E$31)/$M$32</f>
+      <c r="F43" s="46" t="e">
+        <f>SUMPRODUCT($N$2:$N$32,F$2:F$32)/$N$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="66" t="e">
-        <f>SUMPRODUCT($M$2:$M$31,F$2:F$31)/$M$32</f>
+      <c r="G43" s="58" t="e">
+        <f>SUMPRODUCT($N$2:$N$32,G$2:G$32)/$N$33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="57" t="e">
-        <f>SUMPRODUCT($M$2:$M$31,G$2:G$31)/$M$32</f>
+      <c r="H43" s="49" t="e">
+        <f>SUMPRODUCT($N$2:$N$32,H$2:H$32)/$N$33</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="63">
-        <f>SUMPRODUCT($N$2:$N$31,D$2:D$31)/$N$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="E43" s="54">
-        <f>SUMPRODUCT($N$2:$N$31,E$2:E$31)/$N$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="F43" s="66">
-        <f>SUMPRODUCT($N$2:$N$31,F$2:F$31)/$N$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="G43" s="57">
-        <f>SUMPRODUCT($N$2:$N$31,G$2:G$31)/$N$32</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="76" t="s">
+      <c r="C44" s="75"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="55">
+        <f>SUMPRODUCT($O$2:$O$32,E$2:E$32)/$O$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="F44" s="46">
+        <f>SUMPRODUCT($O$2:$O$32,F$2:F$32)/$O$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="G44" s="58">
+        <f>SUMPRODUCT($O$2:$O$32,G$2:G$32)/$O$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="49">
+        <f>SUMPRODUCT($O$2:$O$32,H$2:H$32)/$O$33</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="64">
-        <f>SUMPRODUCT($O$2:$O$31,D$2:D$31)/$O$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="E44" s="55">
-        <f>SUMPRODUCT($O$2:$O$31,E$2:E$31)/$O$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="F44" s="67">
-        <f>SUMPRODUCT($O$2:$O$31,F$2:F$31)/$O$32</f>
-        <v>0.25</v>
-      </c>
-      <c r="G44" s="58">
-        <f>SUMPRODUCT($O$2:$O$31,G$2:G$31)/$O$32</f>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="56">
+        <f>SUMPRODUCT($P$2:$P$32,E$2:E$32)/$P$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="F45" s="47">
+        <f>SUMPRODUCT($P$2:$P$32,F$2:F$32)/$P$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="59">
+        <f>SUMPRODUCT($P$2:$P$32,G$2:G$32)/$P$33</f>
+        <v>0.25</v>
+      </c>
+      <c r="H45" s="50">
+        <f>SUMPRODUCT($P$2:$P$32,H$2:H$32)/$P$33</f>
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+  <mergeCells count="9">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B13:B17"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
